--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_s\A2\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A2\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Pages" sheetId="7" r:id="rId7"/>
     <sheet name="HTML snippets" sheetId="10" r:id="rId8"/>
     <sheet name="HTML Colors" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId10"/>
+    <sheet name="CONSTS SRVR APP" sheetId="12" r:id="rId10"/>
     <sheet name="SASS" sheetId="9" r:id="rId11"/>
     <sheet name="Units" sheetId="8" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14569" uniqueCount="2598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14830" uniqueCount="2688">
   <si>
     <t>Select Work Week</t>
   </si>
@@ -7819,16 +7820,286 @@
     <t>Col→</t>
   </si>
   <si>
-    <t>px Vertical</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>%offset</t>
+    <t>res.setHeader(</t>
+  </si>
+  <si>
+    <t>'Access-Control-Allow-Origin'</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>'Access-Control-Allow-Methods'</t>
+  </si>
+  <si>
+    <t>, '</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>');</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = </t>
+  </si>
+  <si>
+    <t>METHODPOST</t>
+  </si>
+  <si>
+    <t>METHODGET</t>
+  </si>
+  <si>
+    <t>METHODPATCH</t>
+  </si>
+  <si>
+    <t>METHODDELETE</t>
+  </si>
+  <si>
+    <t>METHODOPTIONS</t>
+  </si>
+  <si>
+    <t>ACORIGIN</t>
+  </si>
+  <si>
+    <t>ACHEADERS</t>
+  </si>
+  <si>
+    <t>'Access-Control-Allow-Headers'</t>
+  </si>
+  <si>
+    <t>'Origin, X-Requested-With, Content-Type, Accept'</t>
+  </si>
+  <si>
+    <t>OXRContentAccept</t>
+  </si>
+  <si>
+    <t>ACCEPTALL</t>
+  </si>
+  <si>
+    <t>ACMETHODS</t>
+  </si>
+  <si>
+    <t>const METHODPOST = POST;</t>
+  </si>
+  <si>
+    <t>const METHODGET = GET;</t>
+  </si>
+  <si>
+    <t>const METHODPATCH = PATCH;</t>
+  </si>
+  <si>
+    <t>const METHODDELETE = DELETE;</t>
+  </si>
+  <si>
+    <t>const METHODOPTIONS = OPTIONS;</t>
+  </si>
+  <si>
+    <t>const ACORIGIN = 'Access-Control-Allow-Origin';</t>
+  </si>
+  <si>
+    <t>const ACHEADERS = 'Access-Control-Allow-Headers';</t>
+  </si>
+  <si>
+    <t>const OXRContentAccept = 'Origin, X-Requested-With, Content-Type, Accept';</t>
+  </si>
+  <si>
+    <t>const ACCEPTALL = '*';</t>
+  </si>
+  <si>
+    <t>const ACMETHODS = 'Access-Control-Allow-Methods';</t>
+  </si>
+  <si>
+    <t>res.setHeader(ACORIGIN,ACCEPTALL);</t>
+  </si>
+  <si>
+    <t>res.setHeader(ACHEADERS, OXRContentAccept);</t>
+  </si>
+  <si>
+    <t>res.setHeader(ACMETHODS, ACMETHODSLIST);</t>
+  </si>
+  <si>
+    <t>Kate16k</t>
+  </si>
+  <si>
+    <t>Paul16k</t>
+  </si>
+  <si>
+    <t>Ultimate Value Pack</t>
+  </si>
+  <si>
+    <t>Charles16k</t>
+  </si>
+  <si>
+    <t>Reiner16k</t>
+  </si>
+  <si>
+    <t>Juliette16k</t>
+  </si>
+  <si>
+    <t>Audrey16k</t>
+  </si>
+  <si>
+    <t>Professional Value Pack</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Chiara</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lang    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> File                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENG-BR  </t>
+  </si>
+  <si>
+    <t>| [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIyMiYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri, Apr 21 2017  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIyMyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIyNCYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENG-STD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIxOCYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIxNyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIwOSYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIxMyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIxMiYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIxMCYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENG-US  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTI1NSYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIzNyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIzOCYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIyNyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIyOSYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIzMSYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spanish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIzMyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Swedish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTIzNCYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xftware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=NTAwNyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=MDEyMyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)  </t>
   </si>
 </sst>
 </file>
@@ -8954,7 +9225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10466,6 +10737,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10971,47 +11248,317 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:G8"/>
+  <dimension ref="C2:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="11" customWidth="1"/>
+    <col min="4" max="16" width="3.125" style="14" customWidth="1"/>
+    <col min="17" max="20" width="3.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="5:7">
-      <c r="E6" t="s">
+    <row r="2" spans="3:22">
+      <c r="P2" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>2609</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="T2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22">
+      <c r="P3" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>2610</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="T3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="P4" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>2611</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="T4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22">
+      <c r="P5" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>2612</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2606</v>
+      </c>
+      <c r="T5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22">
+      <c r="C6" s="512" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D6" s="511" t="str">
+        <f>Q7</f>
+        <v>ACORIGIN</v>
+      </c>
+      <c r="E6" s="511" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="511" t="str">
+        <f>Q10</f>
+        <v>ACCEPTALL</v>
+      </c>
+      <c r="G6" s="511" t="s">
+        <v>2597</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>2613</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2604</v>
+      </c>
+      <c r="T6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="512" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>Q8</f>
+        <v>ACHEADERS</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f>Q9</f>
+        <v>OXRContentAccept</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>2597</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>2614</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S7" s="511" t="s">
         <v>2595</v>
       </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="T7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22">
+      <c r="C8" s="512" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" t="s">
+      <c r="D8" s="511" t="str">
+        <f>Q11</f>
+        <v>ACMETHODS</v>
+      </c>
+      <c r="E8" s="511" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F8" s="511" t="str">
+        <f>Q2</f>
+        <v>METHODPOST</v>
+      </c>
+      <c r="G8" s="511" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H8" s="511" t="str">
+        <f>Q3</f>
+        <v>METHODGET</v>
+      </c>
+      <c r="I8" s="511" t="s">
+        <v>2601</v>
+      </c>
+      <c r="J8" s="511" t="str">
+        <f>Q4</f>
+        <v>METHODPATCH</v>
+      </c>
+      <c r="K8" s="511" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L8" s="511" t="str">
+        <f>Q5</f>
+        <v>METHODDELETE</v>
+      </c>
+      <c r="M8" s="511" t="s">
+        <v>2601</v>
+      </c>
+      <c r="N8" s="511" t="str">
+        <f>Q6</f>
+        <v>METHODOPTIONS</v>
+      </c>
+      <c r="O8" s="511" t="s">
+        <v>2605</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>2615</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T8" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22">
+      <c r="P9" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>2618</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>2617</v>
+      </c>
+      <c r="T9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="P10" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>2619</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S10" s="511" t="s">
         <v>2596</v>
       </c>
-      <c r="F7">
-        <v>568</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" t="s">
-        <v>2597</v>
-      </c>
-      <c r="F8">
-        <f>F6/F7*100</f>
-        <v>2.464788732394366</v>
+      <c r="T10" t="s">
+        <v>130</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22">
+      <c r="P11" s="14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>2620</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="S11" s="511" t="s">
+        <v>2598</v>
+      </c>
+      <c r="T11" t="s">
+        <v>130</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="V13" s="13" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22">
+      <c r="V14" s="13" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="V15" s="13" t="s">
+        <v>2633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11020,7 +11567,7 @@
   <dimension ref="A1:U1497"/>
   <sheetViews>
     <sheetView topLeftCell="H1461" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Z1497"/>
+      <selection activeCell="Q1485" sqref="Q1485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53514,6 +54061,649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I2:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:16">
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="9:16">
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="9:16">
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2643</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2661</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="9:16">
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2663</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="9:16">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>2645</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2664</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="9:16">
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2640</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2671</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="9:16">
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2668</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="9:16">
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2668</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="9:16">
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2639</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="9:16">
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2634</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2666</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="9:16">
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2634</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2666</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="9:16">
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2635</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2667</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="9:16">
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2635</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2667</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="9:16">
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2638</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2669</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="9:16">
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2651</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16">
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2652</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2675</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16">
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2673</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16">
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2646</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2677</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16">
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2647</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2678</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16">
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2648</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2680</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16">
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2681</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2649</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2682</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16">
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2683</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2650</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2684</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16">
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2641</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2687</v>
+      </c>
+      <c r="N24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16">
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2686</v>
+      </c>
+      <c r="N25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2662</v>
+      </c>
+      <c r="P25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J4:O25">
+    <sortCondition ref="J4:J25"/>
+    <sortCondition ref="L4:L25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z56"/>
@@ -55427,7 +56617,7 @@
       </c>
       <c r="C4" s="510">
         <f ca="1">TODAY()</f>
-        <v>42663</v>
+        <v>42666</v>
       </c>
       <c r="D4" s="510"/>
       <c r="E4" s="510"/>

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SASS" sheetId="9" r:id="rId11"/>
     <sheet name="Units" sheetId="8" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
+    <sheet name="Classification" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14830" uniqueCount="2688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14875" uniqueCount="2700">
   <si>
     <t>Select Work Week</t>
   </si>
@@ -8100,6 +8101,42 @@
   </si>
   <si>
     <t xml:space="preserve">](http://www.naturalreaders.com/cart/download.php?dc=MDEyMyYmMTQ3NzI2NjU5MyYmcm5kPTc4NzU2)  </t>
+  </si>
+  <si>
+    <t>MATHIS</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
+  <si>
+    <t>LOC_CITY</t>
+  </si>
+  <si>
+    <t>LOC_SCNDRY</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>PUMPSHOP</t>
+  </si>
+  <si>
+    <t>AUXILIARY</t>
+  </si>
+  <si>
+    <t>CLNT_CMPNY</t>
+  </si>
+  <si>
+    <t>SESA</t>
+  </si>
+  <si>
+    <t>HALLIBURTON</t>
+  </si>
+  <si>
+    <t>KEANE</t>
   </si>
 </sst>
 </file>
@@ -10731,17 +10768,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11343,21 +11380,21 @@
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="512" t="s">
+      <c r="C6" s="510" t="s">
         <v>2594</v>
       </c>
-      <c r="D6" s="511" t="str">
+      <c r="D6" s="509" t="str">
         <f>Q7</f>
         <v>ACORIGIN</v>
       </c>
-      <c r="E6" s="511" t="s">
+      <c r="E6" s="509" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="511" t="str">
+      <c r="F6" s="509" t="str">
         <f>Q10</f>
         <v>ACCEPTALL</v>
       </c>
-      <c r="G6" s="511" t="s">
+      <c r="G6" s="509" t="s">
         <v>2597</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -11380,7 +11417,7 @@
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="512" t="s">
+      <c r="C7" s="510" t="s">
         <v>2594</v>
       </c>
       <c r="D7" s="13" t="str">
@@ -11406,7 +11443,7 @@
       <c r="R7" s="14" t="s">
         <v>2608</v>
       </c>
-      <c r="S7" s="511" t="s">
+      <c r="S7" s="509" t="s">
         <v>2595</v>
       </c>
       <c r="T7" t="s">
@@ -11417,49 +11454,49 @@
       </c>
     </row>
     <row r="8" spans="3:22">
-      <c r="C8" s="512" t="s">
+      <c r="C8" s="510" t="s">
         <v>2594</v>
       </c>
-      <c r="D8" s="511" t="str">
+      <c r="D8" s="509" t="str">
         <f>Q11</f>
         <v>ACMETHODS</v>
       </c>
-      <c r="E8" s="511" t="s">
+      <c r="E8" s="509" t="s">
         <v>2599</v>
       </c>
-      <c r="F8" s="511" t="str">
+      <c r="F8" s="509" t="str">
         <f>Q2</f>
         <v>METHODPOST</v>
       </c>
-      <c r="G8" s="511" t="s">
+      <c r="G8" s="509" t="s">
         <v>2601</v>
       </c>
-      <c r="H8" s="511" t="str">
+      <c r="H8" s="509" t="str">
         <f>Q3</f>
         <v>METHODGET</v>
       </c>
-      <c r="I8" s="511" t="s">
+      <c r="I8" s="509" t="s">
         <v>2601</v>
       </c>
-      <c r="J8" s="511" t="str">
+      <c r="J8" s="509" t="str">
         <f>Q4</f>
         <v>METHODPATCH</v>
       </c>
-      <c r="K8" s="511" t="s">
+      <c r="K8" s="509" t="s">
         <v>2601</v>
       </c>
-      <c r="L8" s="511" t="str">
+      <c r="L8" s="509" t="str">
         <f>Q5</f>
         <v>METHODDELETE</v>
       </c>
-      <c r="M8" s="511" t="s">
+      <c r="M8" s="509" t="s">
         <v>2601</v>
       </c>
-      <c r="N8" s="511" t="str">
+      <c r="N8" s="509" t="str">
         <f>Q6</f>
         <v>METHODOPTIONS</v>
       </c>
-      <c r="O8" s="511" t="s">
+      <c r="O8" s="509" t="s">
         <v>2605</v>
       </c>
       <c r="P8" s="14" t="s">
@@ -11511,7 +11548,7 @@
       <c r="R10" s="14" t="s">
         <v>2608</v>
       </c>
-      <c r="S10" s="511" t="s">
+      <c r="S10" s="509" t="s">
         <v>2596</v>
       </c>
       <c r="T10" t="s">
@@ -11531,7 +11568,7 @@
       <c r="R11" s="14" t="s">
         <v>2608</v>
       </c>
-      <c r="S11" s="511" t="s">
+      <c r="S11" s="509" t="s">
         <v>2598</v>
       </c>
       <c r="T11" t="s">
@@ -54065,7 +54102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:P25"/>
     </sheetView>
   </sheetViews>
@@ -54700,6 +54737,170 @@
     <sortCondition ref="J4:J25"/>
     <sortCondition ref="L4:L25"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2692</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2689</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="E12" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -56615,15 +56816,15 @@
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="510">
+      <c r="C4" s="512">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
-      </c>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
-      <c r="F4" s="510"/>
-      <c r="G4" s="510"/>
-      <c r="H4" s="510"/>
+        <v>42670</v>
+      </c>
+      <c r="D4" s="512"/>
+      <c r="E4" s="512"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="512"/>
+      <c r="H4" s="512"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1">
       <c r="B7" s="1">
@@ -56670,7 +56871,7 @@
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="509" t="s">
+      <c r="I8" s="511" t="s">
         <v>8</v>
       </c>
     </row>
@@ -56696,7 +56897,7 @@
       <c r="H9" s="5">
         <v>42653</v>
       </c>
-      <c r="I9" s="509"/>
+      <c r="I9" s="511"/>
     </row>
     <row r="10" spans="2:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B10" s="6" t="s">
@@ -56720,7 +56921,7 @@
       <c r="H10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="509" t="s">
+      <c r="I10" s="511" t="s">
         <v>9</v>
       </c>
     </row>
@@ -56746,7 +56947,7 @@
       <c r="H11" s="1">
         <v>42660</v>
       </c>
-      <c r="I11" s="509"/>
+      <c r="I11" s="511"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2" t="s">

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="WorkOrderReportTS" sheetId="18" r:id="rId9"/>
     <sheet name="Word Lists" sheetId="19" r:id="rId10"/>
     <sheet name="UserConfig" sheetId="20" r:id="rId11"/>
+    <sheet name="UserConfig cont." sheetId="21" r:id="rId12"/>
+    <sheet name="TestData" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15514" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15942" uniqueCount="3098">
   <si>
     <t>Login</t>
   </si>
@@ -8998,6 +9000,336 @@
   </si>
   <si>
     <t>firstName</t>
+  </si>
+  <si>
+    <t>Indx</t>
+  </si>
+  <si>
+    <t>userClassIndx</t>
+  </si>
+  <si>
+    <t>locPrimryIndx</t>
+  </si>
+  <si>
+    <t>locScndryIndx</t>
+  </si>
+  <si>
+    <t>clntCmpnyIndx</t>
+  </si>
+  <si>
+    <t>pyrlClassIndx</t>
+  </si>
+  <si>
+    <t>idUClassIndx</t>
+  </si>
+  <si>
+    <t>idLocPrmIndx</t>
+  </si>
+  <si>
+    <t>idLoc2ndIndx</t>
+  </si>
+  <si>
+    <t>idCompanyIndx</t>
+  </si>
+  <si>
+    <t>firstName?</t>
+  </si>
+  <si>
+    <t>lastName?</t>
+  </si>
+  <si>
+    <t>email?</t>
+  </si>
+  <si>
+    <t>userClass?</t>
+  </si>
+  <si>
+    <t>locPrimry?</t>
+  </si>
+  <si>
+    <t>locScndry?</t>
+  </si>
+  <si>
+    <t>clntCmpny?</t>
+  </si>
+  <si>
+    <t>pyrlClass?</t>
+  </si>
+  <si>
+    <t>idUClass?</t>
+  </si>
+  <si>
+    <t>idLocPrm?</t>
+  </si>
+  <si>
+    <t>idLoc2nd?</t>
+  </si>
+  <si>
+    <t>idCompany?</t>
+  </si>
+  <si>
+    <t>userClassIndx?</t>
+  </si>
+  <si>
+    <t>locPrimryIndx?</t>
+  </si>
+  <si>
+    <t>locScndryIndx?</t>
+  </si>
+  <si>
+    <t>clntCmpnyIndx?</t>
+  </si>
+  <si>
+    <t>pyrlClassIndx?</t>
+  </si>
+  <si>
+    <t>idUClassIndx?</t>
+  </si>
+  <si>
+    <t>idLocPrmIndx?</t>
+  </si>
+  <si>
+    <t>idLoc2ndIndx?</t>
+  </si>
+  <si>
+    <t>idCompanyIndx?</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>setuserClass</t>
+  </si>
+  <si>
+    <t>setlocPrimry</t>
+  </si>
+  <si>
+    <t>setlocScndry</t>
+  </si>
+  <si>
+    <t>setclntCmpny</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ) { </t>
+  </si>
+  <si>
+    <t xml:space="preserve">( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ]; }</t>
+  </si>
+  <si>
+    <t>setIdUClass</t>
+  </si>
+  <si>
+    <t>setIdLocPrm</t>
+  </si>
+  <si>
+    <t>setIdLoc2nd</t>
+  </si>
+  <si>
+    <t>setIdCompany</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>toString();</t>
+  </si>
+  <si>
+    <t>dbIdPrefix</t>
+  </si>
+  <si>
+    <t>usrIdStr</t>
+  </si>
+  <si>
+    <t>this.usr this.a + this.b + this.c + this.d;</t>
+  </si>
+  <si>
+    <t>this.lastName + '_' + this.firstName;</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>let idUClass = 63;</t>
+  </si>
+  <si>
+    <t>let idLocPrm = 92;</t>
+  </si>
+  <si>
+    <t>let idLoc2nd = 33;</t>
+  </si>
+  <si>
+    <t>let idCompany = 33;</t>
+  </si>
+  <si>
+    <t>let a = idUClass.toString();</t>
+  </si>
+  <si>
+    <t>let b = idLocPrm.toString();</t>
+  </si>
+  <si>
+    <t>let c = idLoc2nd.toString();</t>
+  </si>
+  <si>
+    <t>let d = idCompany.toString();</t>
+  </si>
+  <si>
+    <t>let dbIdPrefix = usrIdStr + a + b + c + d;</t>
+  </si>
+  <si>
+    <t>let usrIdStr   = lastName + '_' + firstName;</t>
+  </si>
+  <si>
+    <t>let firstName = 'Stephen';</t>
+  </si>
+  <si>
+    <t>let lastName = 'Gonzalez';</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>namePrefix</t>
+  </si>
+  <si>
+    <t>nameSuffix</t>
+  </si>
+  <si>
+    <t>: string;</t>
+  </si>
+  <si>
+    <t>export class UserComponent {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public firstName     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public lastName      : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public email         : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public userClass     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public locPrimry     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public locScndry     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public clntCmpny     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public pyrlClass     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idUClass      : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idLocPrm      : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idLoc2nd      : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idCompany     : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public userClassIndx : number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public locPrimryIndx : number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public locScndryIndx : number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public clntCmpnyIndx : number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public pyrlClassIndx : number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idUClassIndx  : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idLocPrmIndx  : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idLoc2ndIndx  : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public idCompanyIndx : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public usr           : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public dbIdPrefix    : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public a             : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public b             : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public c             : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public d             : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public usrIdStr      : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public dateStr       : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public middleName    : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public namePrefix    : string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      public nameSuffix    : string;</t>
+  </si>
+  <si>
+    <t>let nameSuffix = '';</t>
+  </si>
+  <si>
+    <t>let namePrefix = '';</t>
+  </si>
+  <si>
+    <t>let middleName = 'A';</t>
+  </si>
+  <si>
+    <t>let docContents = Lorem ipsum Quis consequat nulla aliquip dolor pariatur consequat.</t>
   </si>
 </sst>
 </file>
@@ -14193,10 +14525,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14217,7 +14549,7 @@
     <col min="18" max="16384" width="9" style="483"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="4" t="s">
         <v>2981</v>
       </c>
@@ -14255,7 +14587,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:27" ht="15">
       <c r="A2" s="4"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -14305,7 +14637,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:27" ht="15">
       <c r="A3" s="4"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -14352,7 +14684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:27" ht="15">
       <c r="A4" s="4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -14399,7 +14731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:27" ht="15">
       <c r="A5" s="4"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -14446,7 +14778,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:27" ht="15">
       <c r="A6" s="4"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -14493,7 +14825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:27" ht="15">
       <c r="A7" s="4"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -14537,7 +14869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:27" ht="15">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -14568,7 +14900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:27" ht="15">
       <c r="A9" s="4"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -14597,7 +14929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:27" ht="15">
       <c r="A10" s="4" t="s">
         <v>2981</v>
       </c>
@@ -14609,7 +14941,7 @@
       </c>
       <c r="K10" s="481"/>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:27" ht="15">
       <c r="A11" s="4"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -14632,7 +14964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:27" ht="15">
       <c r="A12" s="4"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -14657,7 +14989,7 @@
       <c r="N12" s="2"/>
       <c r="Q12" s="485"/>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="4"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -14679,20 +15011,35 @@
       <c r="I13" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="483" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>2987</v>
       </c>
-      <c r="R13" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S13" s="483" t="s">
+      <c r="Y13" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="T13" s="483" t="s">
+      <c r="AA13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:27" ht="15">
       <c r="A14" s="4"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -14714,20 +15061,35 @@
       <c r="I14" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="483" t="s">
+      <c r="Q14" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>2986</v>
       </c>
-      <c r="R14" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S14" s="483" t="s">
+      <c r="Y14" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="T14" s="483" t="s">
+      <c r="AA14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" s="4"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -14746,56 +15108,119 @@
       <c r="H15" s="484">
         <v>24</v>
       </c>
-      <c r="Q15" s="483" t="s">
+      <c r="N15" s="481" t="s">
+        <v>2970</v>
+      </c>
+      <c r="O15" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>2985</v>
       </c>
-      <c r="R15" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S15" s="483" t="s">
+      <c r="Y15" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="T15" s="483" t="s">
+      <c r="AA15" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:27" ht="15">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="Q16" s="481" t="s">
+      <c r="N16" s="481" t="s">
+        <v>2971</v>
+      </c>
+      <c r="O16" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>2970</v>
       </c>
-      <c r="R16" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S16" s="481" t="s">
-        <v>2968</v>
-      </c>
-      <c r="T16" s="483" t="s">
+      <c r="Y16" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15">
+    <row r="17" spans="1:27" ht="15">
       <c r="A17" s="4"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="Q17" s="481" t="s">
+      <c r="N17" s="481" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O17" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>2971</v>
       </c>
-      <c r="R17" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S17" s="481" t="s">
-        <v>2964</v>
-      </c>
-      <c r="T17" s="483" t="s">
+      <c r="Y17" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:27" ht="15">
       <c r="A18" s="4" t="s">
         <v>2981</v>
       </c>
@@ -14805,20 +15230,41 @@
       <c r="C18" s="4" t="s">
         <v>2982</v>
       </c>
-      <c r="Q18" s="481" t="s">
+      <c r="N18" s="481" t="s">
+        <v>2973</v>
+      </c>
+      <c r="O18" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>2972</v>
       </c>
-      <c r="R18" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S18" s="481" t="s">
-        <v>2965</v>
-      </c>
-      <c r="T18" s="483" t="s">
+      <c r="Y18" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA18" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15">
+    <row r="19" spans="1:27" ht="15">
       <c r="A19" s="4"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -14840,20 +15286,41 @@
       <c r="I19" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="481" t="s">
+      <c r="N19" s="481" t="s">
+        <v>2974</v>
+      </c>
+      <c r="O19" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>2973</v>
       </c>
-      <c r="R19" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S19" s="481" t="s">
-        <v>2966</v>
-      </c>
-      <c r="T19" s="483" t="s">
+      <c r="Y19" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA19" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15">
+    <row r="20" spans="1:27" ht="15">
       <c r="A20" s="4"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -14875,20 +15342,41 @@
       <c r="I20" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="481" t="s">
+      <c r="N20" s="481" t="s">
+        <v>2975</v>
+      </c>
+      <c r="O20" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>2974</v>
       </c>
-      <c r="R20" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S20" s="481" t="s">
-        <v>2967</v>
-      </c>
-      <c r="T20" s="483" t="s">
+      <c r="Y20" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA20" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15">
+    <row r="21" spans="1:27" ht="15">
       <c r="A21" s="4"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -14910,20 +15398,41 @@
       <c r="I21" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="481" t="s">
+      <c r="N21" s="481" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O21" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>2975</v>
       </c>
-      <c r="R21" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S21" s="481" t="s">
-        <v>2969</v>
-      </c>
-      <c r="T21" s="483" t="s">
+      <c r="Y21" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA21" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15">
+    <row r="22" spans="1:27" ht="15">
       <c r="A22" s="4"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -14945,20 +15454,41 @@
       <c r="I22" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="481" t="s">
+      <c r="N22" s="481" t="s">
+        <v>2977</v>
+      </c>
+      <c r="O22" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>2976</v>
       </c>
-      <c r="R22" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S22" s="481" t="s">
-        <v>2963</v>
-      </c>
-      <c r="T22" s="483" t="s">
+      <c r="Y22" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15">
+    <row r="23" spans="1:27" ht="15">
       <c r="A23" s="4"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -14980,20 +15510,41 @@
       <c r="I23" s="484" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="481" t="s">
+      <c r="N23" s="481" t="s">
+        <v>2978</v>
+      </c>
+      <c r="O23" s="483" t="s">
+        <v>2988</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>3008</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>2977</v>
       </c>
-      <c r="R23" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S23" s="481" t="s">
-        <v>2961</v>
-      </c>
-      <c r="T23" s="483" t="s">
+      <c r="Y23" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA23" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15">
+    <row r="24" spans="1:27" ht="15">
       <c r="A24" s="4"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -15012,32 +15563,101 @@
       <c r="H24" s="484">
         <v>35</v>
       </c>
-      <c r="Q24" s="481" t="s">
+      <c r="Q24" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X24" s="2" t="s">
         <v>2978</v>
       </c>
-      <c r="R24" s="483" t="s">
-        <v>2980</v>
-      </c>
-      <c r="S24" s="481" t="s">
-        <v>2962</v>
-      </c>
-      <c r="T24" s="483" t="s">
+      <c r="Y24" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AA24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:27" ht="15">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
-    </row>
-    <row r="26" spans="1:20" ht="15">
+      <c r="Q25" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Y25" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15">
       <c r="A26" s="4"/>
       <c r="B26"/>
       <c r="C26"/>
-    </row>
-    <row r="27" spans="1:20" ht="15">
+      <c r="Q26" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W26" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="Y26" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15">
       <c r="A27" s="4" t="s">
         <v>2981</v>
       </c>
@@ -15047,8 +15667,35 @@
       <c r="C27" s="4" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15">
+      <c r="Q27" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>2991</v>
+      </c>
+      <c r="Y27" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15">
       <c r="A28" s="4"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -15070,8 +15717,35 @@
       <c r="I28" s="484" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15">
+      <c r="Q28" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W28" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="Y28" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15">
       <c r="A29" s="4"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -15093,8 +15767,35 @@
       <c r="I29" s="484" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15">
+      <c r="Q29" s="4" t="s">
+        <v>3014</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W29" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>2993</v>
+      </c>
+      <c r="Y29" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15">
       <c r="A30" s="4"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -15113,20 +15814,101 @@
       <c r="H30" s="484">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15">
+      <c r="Q30" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W30" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="Y30" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
-    </row>
-    <row r="32" spans="1:20" ht="15">
+      <c r="Q31" s="4" t="s">
+        <v>3016</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W31" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="Y31" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15">
       <c r="A32" s="4"/>
       <c r="B32"/>
       <c r="C32"/>
-    </row>
-    <row r="33" spans="1:9" ht="15">
+      <c r="Q32" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="Y32" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15">
       <c r="A33" s="4" t="s">
         <v>2981</v>
       </c>
@@ -15136,8 +15918,35 @@
       <c r="C33" s="4" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+      <c r="Q33" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="483" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="Y33" s="483" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15">
       <c r="A34" s="4"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -15160,7 +15969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:27" ht="15">
       <c r="A35" s="4"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -15183,7 +15992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:27" ht="15">
       <c r="A36" s="4"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -15206,7 +16015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:27" ht="15">
       <c r="A37" s="4"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -15229,7 +16038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:27" ht="15">
       <c r="A38" s="4"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -15252,7 +16061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:27" ht="15">
       <c r="A39" s="4"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -15275,7 +16084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:27" ht="15">
       <c r="A40" s="4"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -15298,7 +16107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:27" ht="15">
       <c r="A41" s="4"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -15318,19 +16127,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:27" ht="15">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:27" ht="15">
       <c r="A43" s="4"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:27" ht="15">
       <c r="A44" s="4" t="s">
         <v>2981</v>
       </c>
@@ -15341,7 +16150,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="4"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -15364,7 +16173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:27" ht="15">
       <c r="A46" s="4"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -15387,7 +16196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="4"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -15410,7 +16219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:27" ht="15">
       <c r="A48" s="4"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -15867,6 +16676,1030 @@
       <c r="A75" s="2"/>
       <c r="B75"/>
       <c r="C75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z55"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="2.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="4" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>2986</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N4" s="481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V4" s="3">
+        <f ca="1">ROUND(RAND()*100,0)</f>
+        <v>58</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N5" s="481" t="s">
+        <v>2964</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
+        <v>20</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N6" s="481" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3023</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N7" s="481" t="s">
+        <v>2966</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N9" s="481" t="s">
+        <v>2968</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N10" s="481" t="s">
+        <v>2964</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N11" s="481" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N12" s="481" t="s">
+        <v>2966</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>2990</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="4" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="4" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="E25" s="3" t="s">
+        <v>3063</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="E26" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="E27" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="E28" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="E29" s="3" t="s">
+        <v>3064</v>
+      </c>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="E30" s="3" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="E31" s="3" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="E32" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="3" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="3" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="3" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="3" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="3" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="3" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="3" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="3" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="3" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="3" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="3" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="3" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="3" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="3" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="3" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="3" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="3" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="3" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="3" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="3" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="3" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="3" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="3" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>3097</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A2\_UX\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16868" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16870" uniqueCount="3306">
   <si>
     <t>Login</t>
   </si>
@@ -9958,6 +9958,9 @@
   </si>
   <si>
     <t>landing-page</t>
+  </si>
+  <si>
+    <t>onsitexuser.class.ts</t>
   </si>
 </sst>
 </file>
@@ -12893,7 +12896,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -61638,7 +61641,7 @@
       </c>
       <c r="V4" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>71</v>
@@ -61701,7 +61704,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
@@ -61764,7 +61767,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -61827,7 +61830,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>
@@ -66997,8 +67000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -67012,6 +67015,7 @@
     <col min="9" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -67306,7 +67310,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:15">
       <c r="B17" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67327,7 +67331,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:15">
       <c r="B18" s="491" t="s">
         <v>3113</v>
       </c>
@@ -67341,8 +67345,14 @@
       <c r="L18" s="2" t="s">
         <v>3158</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="N18" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="491" t="s">
         <v>3111</v>
       </c>
@@ -67358,7 +67368,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:15">
       <c r="B20" s="491" t="s">
         <v>3102</v>
       </c>
@@ -67376,7 +67386,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:15">
       <c r="B21" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67397,7 +67407,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:15">
       <c r="B22" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67418,7 +67428,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:15">
       <c r="B23" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67439,7 +67449,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:15">
       <c r="B24" s="491" t="s">
         <v>3113</v>
       </c>
@@ -67454,7 +67464,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:15">
       <c r="B25" s="491" t="s">
         <v>3111</v>
       </c>
@@ -67470,7 +67480,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:15">
       <c r="B26" s="491" t="s">
         <v>3102</v>
       </c>
@@ -67488,7 +67498,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:15">
       <c r="B27" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67509,7 +67519,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:15">
       <c r="B28" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67530,7 +67540,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:15">
       <c r="B29" s="491" t="s">
         <v>3112</v>
       </c>
@@ -67551,7 +67561,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:15">
       <c r="B30" s="491" t="s">
         <v>3113</v>
       </c>
@@ -67566,7 +67576,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:15">
       <c r="B31" s="491" t="s">
         <v>3111</v>
       </c>
@@ -67582,7 +67592,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:15">
       <c r="B32" s="491" t="s">
         <v>3102</v>
       </c>

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -61641,7 +61641,7 @@
       </c>
       <c r="V4" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>71</v>
@@ -61704,7 +61704,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
@@ -61767,7 +61767,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -61830,7 +61830,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteXI\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
     <sheet name="Fonts" sheetId="6" r:id="rId2"/>
     <sheet name="Pages" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="25" r:id="rId4"/>
-    <sheet name="page generation" sheetId="23" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId6"/>
+    <sheet name="page generation" sheetId="23" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId6"/>
     <sheet name="AppComponent Router" sheetId="24" r:id="rId7"/>
     <sheet name="HTML snippets" sheetId="10" r:id="rId8"/>
     <sheet name="HTML Colors" sheetId="11" r:id="rId9"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16870" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16768" uniqueCount="3280">
   <si>
     <t>Login</t>
   </si>
@@ -9771,162 +9771,6 @@
     <t xml:space="preserve"> } from '../providers/</t>
   </si>
   <si>
-    <t>// on a device running Android.</t>
-  </si>
-  <si>
-    <t>// on a device running Cordova.</t>
-  </si>
-  <si>
-    <t>// on a desktop device.</t>
-  </si>
-  <si>
-    <t>// on a device running iOS.</t>
-  </si>
-  <si>
-    <t>// on an iPad device.</t>
-  </si>
-  <si>
-    <t>// on an iPhone device.</t>
-  </si>
-  <si>
-    <t>// on a mobile device.</t>
-  </si>
-  <si>
-    <t>// in a browser on a mobile device.</t>
-  </si>
-  <si>
-    <t>// on a phablet device.</t>
-  </si>
-  <si>
-    <t>// on a tablet device.</t>
-  </si>
-  <si>
-    <t>// on a device running Windows.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">android </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cordova </t>
-  </si>
-  <si>
-    <t xml:space="preserve">core </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iphone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobileweb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phablet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tablet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">windows </t>
-  </si>
-  <si>
-    <t>'); }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">console.log('Hello </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('android ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('cordova ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('core ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('ios ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('ipad ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('iphone ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('mobile ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('mobileweb ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('phablet ')) { </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (this.platform.is('tablet ')) { </t>
-  </si>
-  <si>
-    <t>if (this.platform.is('windows ')) {</t>
-  </si>
-  <si>
-    <t>'android'</t>
-  </si>
-  <si>
-    <t>'cordova'</t>
-  </si>
-  <si>
-    <t>'core'</t>
-  </si>
-  <si>
-    <t>'ios'</t>
-  </si>
-  <si>
-    <t>'ipad'</t>
-  </si>
-  <si>
-    <t>'iphone'</t>
-  </si>
-  <si>
-    <t>'mobile'</t>
-  </si>
-  <si>
-    <t>'mobileweb'</t>
-  </si>
-  <si>
-    <t>'phablet'</t>
-  </si>
-  <si>
-    <t>'tablet'</t>
-  </si>
-  <si>
-    <t>'windows'</t>
-  </si>
-  <si>
-    <t>if (this.platform.is(</t>
-  </si>
-  <si>
-    <t>))</t>
-  </si>
-  <si>
-    <t>{ arrPlatform.push(</t>
-  </si>
-  <si>
-    <t>);}</t>
-  </si>
-  <si>
-    <t>console.log(arrPlatform);</t>
-  </si>
-  <si>
-    <t>console.log('Platforms detected: ');</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -9961,6 +9805,84 @@
   </si>
   <si>
     <t>onsitexuser.class.ts</t>
+  </si>
+  <si>
+    <t>declarations:[</t>
+  </si>
+  <si>
+    <t>OnSiteX</t>
+  </si>
+  <si>
+    <t>UserFormComponent</t>
+  </si>
+  <si>
+    <t>PlatformSrvc</t>
+  </si>
+  <si>
+    <t>ShiftPage</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>entryComponents:[</t>
+  </si>
+  <si>
+    <t>imports:[</t>
+  </si>
+  <si>
+    <t>IonicModule.forRoot(OnSiteX)</t>
+  </si>
+  <si>
+    <t>BrowserModule</t>
+  </si>
+  <si>
+    <t>FormsModule</t>
+  </si>
+  <si>
+    <t>ReactiveFormsModule</t>
+  </si>
+  <si>
+    <t>HttpModule</t>
+  </si>
+  <si>
+    <t>exports:[</t>
+  </si>
+  <si>
+    <t>providers:[</t>
+  </si>
+  <si>
+    <t>SecureStorage</t>
+  </si>
+  <si>
+    <t>PostTmpUser</t>
+  </si>
+  <si>
+    <t>schemas:[</t>
+  </si>
+  <si>
+    <t>bootstrap:[</t>
+  </si>
+  <si>
+    <t>IonicApp</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>MSGS</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
   </si>
 </sst>
 </file>
@@ -11180,7 +11102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12634,9 +12556,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -61641,7 +61560,7 @@
       </c>
       <c r="V4" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>71</v>
@@ -61704,7 +61623,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
@@ -61767,7 +61686,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -61830,7 +61749,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>
@@ -63904,8 +63823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI258"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24:AI32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66295,713 +66214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:P48"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:P19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="3.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="495"/>
-    <col min="9" max="9" width="36.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="6:16">
-      <c r="F7" s="4" t="s">
-        <v>3253</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H7" s="495">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>3242</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>3277</v>
-      </c>
-      <c r="M7" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>3277</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="8" spans="6:16">
-      <c r="F8" s="4" t="s">
-        <v>3254</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H8" s="495">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>3243</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>3278</v>
-      </c>
-      <c r="M8" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>3278</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="9" spans="6:16">
-      <c r="F9" s="4" t="s">
-        <v>3255</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H9" s="495">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>3244</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>3279</v>
-      </c>
-      <c r="M9" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>3279</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="10" spans="6:16">
-      <c r="F10" s="4" t="s">
-        <v>3256</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H10" s="495">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>3245</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>3280</v>
-      </c>
-      <c r="M10" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>3280</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="11" spans="6:16">
-      <c r="F11" s="4" t="s">
-        <v>3257</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H11" s="495">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>3246</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="M11" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="12" spans="6:16">
-      <c r="F12" s="4" t="s">
-        <v>3258</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H12" s="495">
-        <v>6</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>3247</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="M12" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="13" spans="6:16">
-      <c r="F13" s="4" t="s">
-        <v>3259</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H13" s="495">
-        <v>7</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>3248</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="M13" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="14" spans="6:16">
-      <c r="F14" s="4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H14" s="495">
-        <v>8</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>3249</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="M14" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="15" spans="6:16">
-      <c r="F15" s="4" t="s">
-        <v>3261</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H15" s="495">
-        <v>9</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>3250</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="M15" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="16" spans="6:16">
-      <c r="F16" s="4" t="s">
-        <v>3262</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H16" s="495">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>3251</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="M16" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16">
-      <c r="F17" s="4" t="s">
-        <v>3263</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="H17" s="495">
-        <v>11</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>3252</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3288</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="M17" s="489" t="s">
-        <v>3289</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="18" spans="5:16">
-      <c r="K18" s="3" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16">
-      <c r="K19" s="3" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16">
-      <c r="E25" s="4" t="s">
-        <v>3277</v>
-      </c>
-      <c r="G25" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>3253</v>
-      </c>
-      <c r="I25" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16">
-      <c r="E26" s="4" t="s">
-        <v>3278</v>
-      </c>
-      <c r="G26" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>3254</v>
-      </c>
-      <c r="I26" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16">
-      <c r="E27" s="4" t="s">
-        <v>3279</v>
-      </c>
-      <c r="G27" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>3255</v>
-      </c>
-      <c r="I27" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16">
-      <c r="E28" s="4" t="s">
-        <v>3280</v>
-      </c>
-      <c r="G28" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>3256</v>
-      </c>
-      <c r="I28" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16">
-      <c r="E29" s="4" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G29" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I29" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16">
-      <c r="E30" s="4" t="s">
-        <v>3282</v>
-      </c>
-      <c r="G30" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>3258</v>
-      </c>
-      <c r="I30" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16">
-      <c r="E31" s="4" t="s">
-        <v>3283</v>
-      </c>
-      <c r="G31" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>3259</v>
-      </c>
-      <c r="I31" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16">
-      <c r="E32" s="4" t="s">
-        <v>3284</v>
-      </c>
-      <c r="G32" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I32" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="G33" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>3261</v>
-      </c>
-      <c r="I33" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="G34" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>3262</v>
-      </c>
-      <c r="I34" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="G35" s="489" t="s">
-        <v>2889</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I35" s="489" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" s="4" t="s">
-        <v>3266</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>3253</v>
-      </c>
-      <c r="H37" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" s="4" t="s">
-        <v>3267</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>3254</v>
-      </c>
-      <c r="H38" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" s="4" t="s">
-        <v>3268</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>3255</v>
-      </c>
-      <c r="H39" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" s="4" t="s">
-        <v>3269</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>3256</v>
-      </c>
-      <c r="H40" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" s="4" t="s">
-        <v>3270</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>3257</v>
-      </c>
-      <c r="H41" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" s="4" t="s">
-        <v>3271</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>3258</v>
-      </c>
-      <c r="H42" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" s="4" t="s">
-        <v>3272</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>3259</v>
-      </c>
-      <c r="H43" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" s="4" t="s">
-        <v>3273</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="H44" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" s="4" t="s">
-        <v>3274</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>3261</v>
-      </c>
-      <c r="H45" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" s="4" t="s">
-        <v>3275</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H46" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" s="4" t="s">
-        <v>3276</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H47" s="489" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="H48" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -67051,7 +66267,7 @@
         <v>3111</v>
       </c>
       <c r="O5" t="s">
-        <v>3296</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75">
@@ -67075,7 +66291,7 @@
         <v>3111</v>
       </c>
       <c r="O6" t="s">
-        <v>3297</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -67099,7 +66315,7 @@
         <v>3111</v>
       </c>
       <c r="O7" t="s">
-        <v>3298</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75">
@@ -67123,7 +66339,7 @@
         <v>3111</v>
       </c>
       <c r="O8" t="s">
-        <v>3299</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -67146,7 +66362,7 @@
         <v>3111</v>
       </c>
       <c r="O9" t="s">
-        <v>3300</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -67173,7 +66389,7 @@
         <v>3111</v>
       </c>
       <c r="O10" t="s">
-        <v>3301</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -67200,7 +66416,7 @@
         <v>3111</v>
       </c>
       <c r="O11" t="s">
-        <v>3302</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -67223,7 +66439,7 @@
         <v>3111</v>
       </c>
       <c r="O12" t="s">
-        <v>3303</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -67246,7 +66462,7 @@
         <v>3111</v>
       </c>
       <c r="O13" t="s">
-        <v>3304</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -67349,7 +66565,7 @@
         <v>3112</v>
       </c>
       <c r="O18" t="s">
-        <v>3305</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -68331,12 +67547,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68365,18 +67581,18 @@
       <c r="A4" s="3" t="s">
         <v>3071</v>
       </c>
-      <c r="C4" s="496" t="s">
-        <v>3294</v>
+      <c r="C4" s="495" t="s">
+        <v>3242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3071</v>
       </c>
-      <c r="C5" s="497" t="s">
+      <c r="C5" s="496" t="s">
         <v>3071</v>
       </c>
-      <c r="F5" s="497" t="s">
+      <c r="F5" s="496" t="s">
         <v>3071</v>
       </c>
     </row>
@@ -68384,10 +67600,10 @@
       <c r="A6" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="C6" s="497" t="s">
+      <c r="C6" s="496" t="s">
         <v>3078</v>
       </c>
-      <c r="F6" s="497" t="s">
+      <c r="F6" s="496" t="s">
         <v>3078</v>
       </c>
     </row>
@@ -68395,10 +67611,10 @@
       <c r="A7" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="C7" s="497" t="s">
+      <c r="C7" s="496" t="s">
         <v>3070</v>
       </c>
-      <c r="F7" s="497" t="s">
+      <c r="F7" s="496" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -68406,10 +67622,10 @@
       <c r="A8" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="C8" s="497" t="s">
+      <c r="C8" s="496" t="s">
         <v>3075</v>
       </c>
-      <c r="F8" s="497" t="s">
+      <c r="F8" s="496" t="s">
         <v>3079</v>
       </c>
     </row>
@@ -68417,10 +67633,10 @@
       <c r="A9" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="C9" s="497" t="s">
+      <c r="C9" s="496" t="s">
         <v>3076</v>
       </c>
-      <c r="F9" s="497" t="s">
+      <c r="F9" s="496" t="s">
         <v>3107</v>
       </c>
     </row>
@@ -68428,10 +67644,10 @@
       <c r="A10" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="C10" s="497" t="s">
+      <c r="C10" s="496" t="s">
         <v>3073</v>
       </c>
-      <c r="F10" s="497" t="s">
+      <c r="F10" s="496" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -68439,10 +67655,10 @@
       <c r="A11" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="C11" s="497" t="s">
+      <c r="C11" s="496" t="s">
         <v>3072</v>
       </c>
-      <c r="F11" s="497" t="s">
+      <c r="F11" s="496" t="s">
         <v>3103</v>
       </c>
     </row>
@@ -68450,10 +67666,10 @@
       <c r="A12" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="C12" s="497" t="s">
+      <c r="C12" s="496" t="s">
         <v>3074</v>
       </c>
-      <c r="F12" s="497" t="s">
+      <c r="F12" s="496" t="s">
         <v>3080</v>
       </c>
     </row>
@@ -68461,10 +67677,10 @@
       <c r="A13" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="C13" s="497" t="s">
-        <v>3295</v>
-      </c>
-      <c r="F13" s="497" t="s">
+      <c r="C13" s="496" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F13" s="496" t="s">
         <v>3100</v>
       </c>
     </row>
@@ -68472,7 +67688,7 @@
       <c r="A14" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="F14" s="497" t="s">
+      <c r="F14" s="496" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -68480,7 +67696,7 @@
       <c r="A15" s="3" t="s">
         <v>3079</v>
       </c>
-      <c r="F15" s="497" t="s">
+      <c r="F15" s="496" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -68488,7 +67704,7 @@
       <c r="A16" t="s">
         <v>3107</v>
       </c>
-      <c r="F16" s="497" t="s">
+      <c r="F16" s="496" t="s">
         <v>3075</v>
       </c>
     </row>
@@ -68496,7 +67712,7 @@
       <c r="A17" t="s">
         <v>3107</v>
       </c>
-      <c r="F17" s="497" t="s">
+      <c r="F17" s="496" t="s">
         <v>3076</v>
       </c>
     </row>
@@ -68504,7 +67720,7 @@
       <c r="A18" t="s">
         <v>3110</v>
       </c>
-      <c r="F18" s="497" t="s">
+      <c r="F18" s="496" t="s">
         <v>3077</v>
       </c>
     </row>
@@ -68512,7 +67728,7 @@
       <c r="A19" t="s">
         <v>3103</v>
       </c>
-      <c r="F19" s="497" t="s">
+      <c r="F19" s="496" t="s">
         <v>3081</v>
       </c>
     </row>
@@ -68520,7 +67736,7 @@
       <c r="A20" t="s">
         <v>3103</v>
       </c>
-      <c r="F20" s="497" t="s">
+      <c r="F20" s="496" t="s">
         <v>3073</v>
       </c>
     </row>
@@ -68528,7 +67744,7 @@
       <c r="A21" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="F21" s="497" t="s">
+      <c r="F21" s="496" t="s">
         <v>3072</v>
       </c>
     </row>
@@ -68536,7 +67752,7 @@
       <c r="A22" t="s">
         <v>3100</v>
       </c>
-      <c r="F22" s="497" t="s">
+      <c r="F22" s="496" t="s">
         <v>3074</v>
       </c>
     </row>
@@ -68559,7 +67775,7 @@
       <c r="A26" t="s">
         <v>3100</v>
       </c>
-      <c r="F26" s="497" t="s">
+      <c r="F26" s="496" t="s">
         <v>3071</v>
       </c>
     </row>
@@ -68567,7 +67783,7 @@
       <c r="A27" t="s">
         <v>3109</v>
       </c>
-      <c r="F27" s="497" t="s">
+      <c r="F27" s="496" t="s">
         <v>3078</v>
       </c>
     </row>
@@ -68575,7 +67791,7 @@
       <c r="A28" t="s">
         <v>3109</v>
       </c>
-      <c r="F28" s="497" t="s">
+      <c r="F28" s="496" t="s">
         <v>3070</v>
       </c>
     </row>
@@ -68583,7 +67799,7 @@
       <c r="A29" t="s">
         <v>3106</v>
       </c>
-      <c r="F29" s="497" t="s">
+      <c r="F29" s="496" t="s">
         <v>3075</v>
       </c>
     </row>
@@ -68591,7 +67807,7 @@
       <c r="A30" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="F30" s="497" t="s">
+      <c r="F30" s="496" t="s">
         <v>3076</v>
       </c>
     </row>
@@ -68599,7 +67815,7 @@
       <c r="A31" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="F31" s="497" t="s">
+      <c r="F31" s="496" t="s">
         <v>3073</v>
       </c>
     </row>
@@ -68607,7 +67823,7 @@
       <c r="A32" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="F32" s="497" t="s">
+      <c r="F32" s="496" t="s">
         <v>3072</v>
       </c>
     </row>
@@ -68615,7 +67831,7 @@
       <c r="A33" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="F33" s="497" t="s">
+      <c r="F33" s="496" t="s">
         <v>3074</v>
       </c>
     </row>
@@ -68742,6 +67958,371 @@
     <sortCondition ref="A1:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9">
+      <c r="E1" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9">
+      <c r="F2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9">
+      <c r="F3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9">
+      <c r="F4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="F5" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="F6" t="s">
+        <v>3087</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="F7" t="s">
+        <v>3088</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="F8" t="s">
+        <v>3089</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="F9" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="F10" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="F11" t="s">
+        <v>3255</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="F12" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="F13" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="F14" t="s">
+        <v>3257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="F15" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="F18" t="s">
+        <v>3083</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="F19" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="F20" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="F22" t="s">
+        <v>3087</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="F23" t="s">
+        <v>3088</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="F24" t="s">
+        <v>3089</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="F25" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="F26" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="F27" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="F30" t="s">
+        <v>3262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="F31" t="s">
+        <v>3263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="F32" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="F33" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="F34" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="F37" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="F40" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="F41" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="F42" t="s">
+        <v>3269</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="F43" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="F44" t="s">
+        <v>3257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3273</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteXI\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="41" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16768" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16768" uniqueCount="3281">
   <si>
     <t>Login</t>
   </si>
@@ -9883,6 +9883,9 @@
   </si>
   <si>
     <t>SHIFT</t>
+  </si>
+  <si>
+    <t>cd  C:\A3\_UX\OnSiteX\src</t>
   </si>
 </sst>
 </file>
@@ -12815,7 +12818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -61560,7 +61563,7 @@
       </c>
       <c r="V4" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>71</v>
@@ -61623,7 +61626,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
@@ -61686,7 +61689,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -61749,7 +61752,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>
@@ -63823,7 +63826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4:T13"/>
     </sheetView>
   </sheetViews>
@@ -66216,8 +66219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -66261,7 +66264,7 @@
         <v>3107</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>3146</v>
+        <v>3280</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>3111</v>

--- a/Docs/Excel/UI Proto.xlsx
+++ b/Docs/Excel/UI Proto.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="16155" tabRatio="676" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Text Outline" sheetId="3" r:id="rId1"/>
@@ -29,21 +29,56 @@
     <sheet name="UserConfig" sheetId="20" r:id="rId15"/>
     <sheet name="UserConfig cont." sheetId="21" r:id="rId16"/>
     <sheet name="TestData" sheetId="22" r:id="rId17"/>
+    <sheet name="CSS" sheetId="28" r:id="rId18"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_CSSA1C1081" hidden="1">CSS!$A$1:$C$108</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId19"/>
+    <pivotCache cacheId="23" r:id="rId20"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Range-bf70a3e9-f4c1-4dc4-bf22-2100656da59a" name="Range" connection="WorksheetConnection_CSS!$A$1:$C$108"/>
+        </x15:modelTables>
+      </x15:dataModel>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_CSS!$A$1:$C$108" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range-bf70a3e9-f4c1-4dc4-bf22-2100656da59a" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CSSA1C1081"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16768" uniqueCount="3281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17417" uniqueCount="3410">
   <si>
     <t>Login</t>
   </si>
@@ -9886,6 +9921,393 @@
   </si>
   <si>
     <t>cd  C:\A3\_UX\OnSiteX\src</t>
+  </si>
+  <si>
+    <t>DAYS OFF</t>
+  </si>
+  <si>
+    <t>BROWNFIELD PUMP SHOP</t>
+  </si>
+  <si>
+    <t>Alaniz, Juan</t>
+  </si>
+  <si>
+    <t>Andrade, Jesus</t>
+  </si>
+  <si>
+    <t>FIRST WEEK</t>
+  </si>
+  <si>
+    <t>Benavides, Jesus</t>
+  </si>
+  <si>
+    <t>KEANE SPRINGTOWN</t>
+  </si>
+  <si>
+    <t>Cabrera, Sergio</t>
+  </si>
+  <si>
+    <t>Camarillo, Marco</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>Cantu, Daniel</t>
+  </si>
+  <si>
+    <t>Careaga, Luis</t>
+  </si>
+  <si>
+    <t>Cepeda, René</t>
+  </si>
+  <si>
+    <t>DUNCAN MANITENANCE</t>
+  </si>
+  <si>
+    <t>Chavez, Javier</t>
+  </si>
+  <si>
+    <t>Contreras Sr., Oscar</t>
+  </si>
+  <si>
+    <t>DUNCAN PUMP SHOP</t>
+  </si>
+  <si>
+    <t>De La Garza, Oscar</t>
+  </si>
+  <si>
+    <t>De La Rosa, Irvin</t>
+  </si>
+  <si>
+    <t>UNASSIGNED</t>
+  </si>
+  <si>
+    <t>De León, Ricardo</t>
+  </si>
+  <si>
+    <t>FINAL WEEK</t>
+  </si>
+  <si>
+    <t>BASIC ENERGY MIDLAND</t>
+  </si>
+  <si>
+    <t>Elizondo, Andres</t>
+  </si>
+  <si>
+    <t>Escobar, Horacio</t>
+  </si>
+  <si>
+    <t>Escobedo, Arnoldo</t>
+  </si>
+  <si>
+    <t>Estrada, Erick</t>
+  </si>
+  <si>
+    <t>Estrada, Iovani</t>
+  </si>
+  <si>
+    <t>Flores, Eric</t>
+  </si>
+  <si>
+    <t>Flores, Javier</t>
+  </si>
+  <si>
+    <t>Galvan, Juan</t>
+  </si>
+  <si>
+    <t>Galvan, Rogelio</t>
+  </si>
+  <si>
+    <t>Gaona, Daniel</t>
+  </si>
+  <si>
+    <t>Garcia, Fernando</t>
+  </si>
+  <si>
+    <t>Garcia, Gerardo</t>
+  </si>
+  <si>
+    <t>KEANE SPRINGTOWN E-TECH</t>
+  </si>
+  <si>
+    <t>Garcia, Louis</t>
+  </si>
+  <si>
+    <t>Garza, Jesus</t>
+  </si>
+  <si>
+    <t>Garza, Sergio</t>
+  </si>
+  <si>
+    <t>González, Irving</t>
+  </si>
+  <si>
+    <t>CONTN WEEK</t>
+  </si>
+  <si>
+    <t>González, Justin</t>
+  </si>
+  <si>
+    <t>González, Kevin</t>
+  </si>
+  <si>
+    <t>Guerrero, Miguel</t>
+  </si>
+  <si>
+    <t>Gutiérrez, Enrique</t>
+  </si>
+  <si>
+    <t>Gutierrez, Noel</t>
+  </si>
+  <si>
+    <t>Hernandez, Cesar</t>
+  </si>
+  <si>
+    <t>ROCK SPRINGS WY</t>
+  </si>
+  <si>
+    <t>Hernandez, Ivan</t>
+  </si>
+  <si>
+    <t>KEANE SHAWNEE</t>
+  </si>
+  <si>
+    <t>Herrera, Abraham</t>
+  </si>
+  <si>
+    <t>Herrera, Edgar</t>
+  </si>
+  <si>
+    <t>KEANE MILL HALL</t>
+  </si>
+  <si>
+    <t>Hisiquio, Isai</t>
+  </si>
+  <si>
+    <t>Hisiquio, Sixto</t>
+  </si>
+  <si>
+    <t>Iracheta, Eduardo</t>
+  </si>
+  <si>
+    <t>Johnson, Andrew</t>
+  </si>
+  <si>
+    <t>Klimp, Billy</t>
+  </si>
+  <si>
+    <t>Leal, Sergio</t>
+  </si>
+  <si>
+    <t>Lopez, Raul</t>
+  </si>
+  <si>
+    <t>Marquez, Lucio</t>
+  </si>
+  <si>
+    <t>Marquez, Xavier Dominique</t>
+  </si>
+  <si>
+    <t>Marroquin, José Luis</t>
+  </si>
+  <si>
+    <t>Martinez, Gabriel</t>
+  </si>
+  <si>
+    <t>Martinez, Humberto</t>
+  </si>
+  <si>
+    <t>Martinez, Juan Carlos</t>
+  </si>
+  <si>
+    <t>Martinez, Julio</t>
+  </si>
+  <si>
+    <t>Martinez, Kevin</t>
+  </si>
+  <si>
+    <t>Martinez, Vicente</t>
+  </si>
+  <si>
+    <t>PERSONNEL AT HQ SHOP</t>
+  </si>
+  <si>
+    <t>Medina, Adan</t>
+  </si>
+  <si>
+    <t>Medina, Calixto</t>
+  </si>
+  <si>
+    <t>Medina, Daniel</t>
+  </si>
+  <si>
+    <t>Medina, Francisco</t>
+  </si>
+  <si>
+    <t>Medina, Miguel</t>
+  </si>
+  <si>
+    <t>Mendez, José Luis</t>
+  </si>
+  <si>
+    <t>Montes, Carlos</t>
+  </si>
+  <si>
+    <t>Montoya, Mauricio</t>
+  </si>
+  <si>
+    <t>Ocañas, Elias</t>
+  </si>
+  <si>
+    <t>Ochoa, Adrian</t>
+  </si>
+  <si>
+    <t>Ochoa, Armando</t>
+  </si>
+  <si>
+    <t>Ochoa, Joel</t>
+  </si>
+  <si>
+    <t>Osuna, José</t>
+  </si>
+  <si>
+    <t>Oyervides, Arturo</t>
+  </si>
+  <si>
+    <t>Palacios, Edwin</t>
+  </si>
+  <si>
+    <t>Pedroza, Cristobal</t>
+  </si>
+  <si>
+    <t>Peña, Advento</t>
+  </si>
+  <si>
+    <t>Perales, Juan</t>
+  </si>
+  <si>
+    <t>Piñon, Lauro</t>
+  </si>
+  <si>
+    <t>Ramirez, Ovidio</t>
+  </si>
+  <si>
+    <t>Retana, José</t>
+  </si>
+  <si>
+    <t>Reyes, Gabino</t>
+  </si>
+  <si>
+    <t>Reyes, Juan Manuel</t>
+  </si>
+  <si>
+    <t>Rico, José</t>
+  </si>
+  <si>
+    <t>Rivera, Raul</t>
+  </si>
+  <si>
+    <t>Rivera, Raul Jr.</t>
+  </si>
+  <si>
+    <t>Rodriguez, Antonio</t>
+  </si>
+  <si>
+    <t>Rodriguez, John</t>
+  </si>
+  <si>
+    <t>Rodriguez, Julio</t>
+  </si>
+  <si>
+    <t>Rodriguez, Max</t>
+  </si>
+  <si>
+    <t>Saldaña, Jorge</t>
+  </si>
+  <si>
+    <t>Salinas, Aaron</t>
+  </si>
+  <si>
+    <t>Salinas, Jesus</t>
+  </si>
+  <si>
+    <t>Salinas, Saul</t>
+  </si>
+  <si>
+    <t>Sanchez, Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segura, Roberto </t>
+  </si>
+  <si>
+    <t>Serna, Gonzalo</t>
+  </si>
+  <si>
+    <t>Teniente, Juan</t>
+  </si>
+  <si>
+    <t>Tijerina, René</t>
+  </si>
+  <si>
+    <t>Torres, Alex</t>
+  </si>
+  <si>
+    <t>Tovar, David</t>
+  </si>
+  <si>
+    <t>Tovar, Eduardo</t>
+  </si>
+  <si>
+    <t>Tovar, Luis</t>
+  </si>
+  <si>
+    <t>Tovar, Roel</t>
+  </si>
+  <si>
+    <t>ODESSA E-TECH</t>
+  </si>
+  <si>
+    <t>Treviño, Pete</t>
+  </si>
+  <si>
+    <t>Vela, Ediberto</t>
+  </si>
+  <si>
+    <t>Vela, José F.</t>
+  </si>
+  <si>
+    <t>Venegas, Gerardo</t>
+  </si>
+  <si>
+    <t>BROWNFIELD E-TECH</t>
+  </si>
+  <si>
+    <t>Verduzco, Javier</t>
+  </si>
+  <si>
+    <t>Villareal, Leonel</t>
+  </si>
+  <si>
+    <t>Yunes, Juan Pablo</t>
+  </si>
+  <si>
+    <t>Zaragoza, Juan</t>
+  </si>
+  <si>
+    <t>Zuñiga, José Luis</t>
+  </si>
+  <si>
+    <t>TechRotation</t>
+  </si>
+  <si>
+    <t>JobSiteOnSchedule</t>
+  </si>
+  <si>
+    <t>TechOnSchedule</t>
+  </si>
+  <si>
+    <t>Segura, Roberto</t>
   </si>
 </sst>
 </file>
@@ -11105,7 +11527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12563,11 +12985,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -12618,6 +13068,191 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Michael Bates" refreshedDate="42890.187991550927" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Range].[JobSiteOnSchedule].[JobSiteOnSchedule]" caption="JobSiteOnSchedule" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="15">
+        <s v="BASIC ENERGY MIDLAND"/>
+        <s v="BROWNFIELD"/>
+        <s v="BROWNFIELD E-TECH"/>
+        <s v="BROWNFIELD PUMP SHOP"/>
+        <s v="DUNCAN MANITENANCE"/>
+        <s v="DUNCAN PUMP SHOP"/>
+        <s v="KEANE MILL HALL"/>
+        <s v="KEANE SHAWNEE"/>
+        <s v="KEANE SPRINGTOWN"/>
+        <s v="KEANE SPRINGTOWN E-TECH"/>
+        <s v="ODESSA"/>
+        <s v="ODESSA E-TECH"/>
+        <s v="PERSONNEL AT HQ SHOP"/>
+        <s v="ROCK SPRINGS WY"/>
+        <s v="SAN ANTONIO"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range].[TechRotation].[TechRotation]" caption="TechRotation" numFmtId="0" level="1">
+      <sharedItems count="5">
+        <s v="CONTN WEEK"/>
+        <s v="DAYS OFF"/>
+        <s v="FINAL WEEK"/>
+        <s v="FIRST WEEK"/>
+        <s v="UNASSIGNED"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range].[TechOnSchedule].[TechOnSchedule]" caption="TechOnSchedule" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="107">
+        <s v="Zaragoza, Juan"/>
+        <s v="Salinas, Aaron"/>
+        <s v="Teniente, Juan"/>
+        <s v="Elizondo, Andres"/>
+        <s v="Medina, Miguel"/>
+        <s v="Reyes, Gabino"/>
+        <s v="Gutiérrez, Enrique"/>
+        <s v="Hernandez, Cesar"/>
+        <s v="Martinez, Humberto"/>
+        <s v="Saldaña, Jorge"/>
+        <s v="Yunes, Juan Pablo"/>
+        <s v="Estrada, Erick"/>
+        <s v="Estrada, Iovani"/>
+        <s v="Marroquin, José Luis"/>
+        <s v="Rodriguez, Antonio"/>
+        <s v="Benavides, Jesus"/>
+        <s v="Camarillo, Marco"/>
+        <s v="Careaga, Luis"/>
+        <s v="Contreras Sr., Oscar"/>
+        <s v="Garcia, Gerardo"/>
+        <s v="Garza, Jesus"/>
+        <s v="Verduzco, Javier"/>
+        <s v="Alaniz, Juan"/>
+        <s v="Andrade, Jesus"/>
+        <s v="Rivera, Raul"/>
+        <s v="Rivera, Raul Jr."/>
+        <s v="Garza, Sergio"/>
+        <s v="Marquez, Xavier Dominique"/>
+        <s v="Montoya, Mauricio"/>
+        <s v="Ochoa, Armando"/>
+        <s v="Perales, Juan"/>
+        <s v="Rico, José"/>
+        <s v="Martinez, Kevin"/>
+        <s v="Medina, Calixto"/>
+        <s v="Salinas, Saul"/>
+        <s v="Chavez, Javier"/>
+        <s v="Iracheta, Eduardo"/>
+        <s v="Martinez, Gabriel"/>
+        <s v="Rodriguez, Julio"/>
+        <s v="Johnson, Andrew"/>
+        <s v="Medina, Daniel"/>
+        <s v="De La Rosa, Irvin"/>
+        <s v="Segura, Roberto"/>
+        <s v="De León, Ricardo"/>
+        <s v="Leal, Sergio"/>
+        <s v="González, Justin"/>
+        <s v="Palacios, Edwin"/>
+        <s v="Salinas, Jesus"/>
+        <s v="González, Kevin"/>
+        <s v="Ochoa, Adrian"/>
+        <s v="Oyervides, Arturo"/>
+        <s v="Piñon, Lauro"/>
+        <s v="Ramirez, Ovidio"/>
+        <s v="Venegas, Gerardo"/>
+        <s v="De La Garza, Oscar"/>
+        <s v="Retana, José"/>
+        <s v="Hisiquio, Isai"/>
+        <s v="Hisiquio, Sixto"/>
+        <s v="Klimp, Billy"/>
+        <s v="Sanchez, Daniel"/>
+        <s v="Ocañas, Elias"/>
+        <s v="Herrera, Abraham"/>
+        <s v="Tijerina, René"/>
+        <s v="Villareal, Leonel"/>
+        <s v="Martinez, Vicente"/>
+        <s v="Montes, Carlos"/>
+        <s v="Gaona, Daniel"/>
+        <s v="Herrera, Edgar"/>
+        <s v="Tovar, David"/>
+        <s v="Tovar, Eduardo"/>
+        <s v="Tovar, Roel"/>
+        <s v="Cabrera, Sergio"/>
+        <s v="Cepeda, René"/>
+        <s v="Tovar, Luis"/>
+        <s v="Vela, Ediberto"/>
+        <s v="Garcia, Louis"/>
+        <s v="Flores, Eric"/>
+        <s v="Martinez, Julio"/>
+        <s v="Escobar, Horacio"/>
+        <s v="Galvan, Juan"/>
+        <s v="Galvan, Rogelio"/>
+        <s v="González, Irving"/>
+        <s v="Garcia, Fernando"/>
+        <s v="Guerrero, Miguel"/>
+        <s v="Osuna, José"/>
+        <s v="Serna, Gonzalo"/>
+        <s v="Treviño, Pete"/>
+        <s v="Medina, Adan"/>
+        <s v="Medina, Francisco"/>
+        <s v="Mendez, José Luis"/>
+        <s v="Ochoa, Joel"/>
+        <s v="Hernandez, Ivan"/>
+        <s v="Torres, Alex"/>
+        <s v="Vela, José F."/>
+        <s v="Cantu, Daniel"/>
+        <s v="Gutierrez, Noel"/>
+        <s v="Reyes, Juan Manuel"/>
+        <s v="Zuñiga, José Luis"/>
+        <s v="Flores, Javier"/>
+        <s v="Lopez, Raul"/>
+        <s v="Marquez, Lucio"/>
+        <s v="Escobedo, Arnoldo"/>
+        <s v="Pedroza, Cristobal"/>
+        <s v="Peña, Advento"/>
+        <s v="Rodriguez, Max"/>
+        <s v="Martinez, Juan Carlos"/>
+        <s v="Rodriguez, John"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="5">
+    <cacheHierarchy uniqueName="[Range].[TechRotation]" caption="TechRotation" attribute="1" defaultMemberUniqueName="[Range].[TechRotation].[All]" allUniqueName="[Range].[TechRotation].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[JobSiteOnSchedule]" caption="JobSiteOnSchedule" attribute="1" defaultMemberUniqueName="[Range].[JobSiteOnSchedule].[All]" allUniqueName="[Range].[JobSiteOnSchedule].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range].[TechOnSchedule]" caption="TechOnSchedule" attribute="1" defaultMemberUniqueName="[Range].[TechOnSchedule].[All]" allUniqueName="[Range].[TechOnSchedule].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Range" caption="Range"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -12818,7 +13453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -12885,6 +13520,558 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="D1:F108" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="107">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="107">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="1"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="35"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
+    </i>
+    <i r="2">
+      <x v="37"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="39"/>
+    </i>
+    <i r="2">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="41"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="43"/>
+    </i>
+    <i r="2">
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+      <x v="45"/>
+    </i>
+    <i r="2">
+      <x v="46"/>
+    </i>
+    <i r="2">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="48"/>
+    </i>
+    <i r="2">
+      <x v="49"/>
+    </i>
+    <i r="2">
+      <x v="50"/>
+    </i>
+    <i r="2">
+      <x v="51"/>
+    </i>
+    <i r="2">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="54"/>
+    </i>
+    <i r="2">
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+      <x v="56"/>
+    </i>
+    <i r="2">
+      <x v="57"/>
+    </i>
+    <i r="2">
+      <x v="58"/>
+    </i>
+    <i r="2">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="1"/>
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+      <x v="62"/>
+    </i>
+    <i r="2">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="64"/>
+    </i>
+    <i r="2">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="66"/>
+    </i>
+    <i r="2">
+      <x v="67"/>
+    </i>
+    <i r="2">
+      <x v="68"/>
+    </i>
+    <i r="2">
+      <x v="69"/>
+    </i>
+    <i r="2">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="71"/>
+    </i>
+    <i r="2">
+      <x v="72"/>
+    </i>
+    <i r="2">
+      <x v="73"/>
+    </i>
+    <i r="2">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="1"/>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="1"/>
+      <x v="76"/>
+    </i>
+    <i r="2">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="78"/>
+    </i>
+    <i r="2">
+      <x v="79"/>
+    </i>
+    <i r="2">
+      <x v="80"/>
+    </i>
+    <i r="2">
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="82"/>
+    </i>
+    <i r="2">
+      <x v="83"/>
+    </i>
+    <i r="2">
+      <x v="84"/>
+    </i>
+    <i r="2">
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="2"/>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x/>
+      <x v="87"/>
+    </i>
+    <i r="2">
+      <x v="88"/>
+    </i>
+    <i r="2">
+      <x v="89"/>
+    </i>
+    <i r="2">
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="91"/>
+    </i>
+    <i r="2">
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x/>
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="94"/>
+    </i>
+    <i r="2">
+      <x v="95"/>
+    </i>
+    <i r="2">
+      <x v="96"/>
+    </i>
+    <i r="2">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="98"/>
+    </i>
+    <i r="2">
+      <x v="99"/>
+    </i>
+    <i r="2">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="101"/>
+    </i>
+    <i r="2">
+      <x v="102"/>
+    </i>
+    <i r="2">
+      <x v="103"/>
+    </i>
+    <i r="2">
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="105"/>
+    </i>
+    <i r="2">
+      <x v="106"/>
+    </i>
+  </rowItems>
+  <pivotHierarchies count="5">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="3">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="0"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CSS!$A$1:$C$108">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -61563,7 +62750,7 @@
       </c>
       <c r="V4" s="3">
         <f ca="1">ROUND(RAND()*100,0)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>71</v>
@@ -61626,7 +62813,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:V7" ca="1" si="0">ROUND(RAND()*100,0)</f>
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>71</v>
@@ -61689,7 +62876,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>71</v>
@@ -61752,7 +62939,7 @@
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>71</v>
@@ -62456,6 +63643,2209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:P40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D1" s="495" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E1" s="495" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F1" s="495" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B2" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C2" s="497" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B3" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C3" s="497" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B4" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C4" s="497" t="s">
+        <v>3388</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3304</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B5" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C5" s="497" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B6" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C6" s="497" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3325</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3345</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3381</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B7" s="497" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C7" s="497" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3307</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3308</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3343</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B8" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="497" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3286</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3289</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3296</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3315</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B9" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="497" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B10" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="497" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3283</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3284</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3375</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B11" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="497" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3381</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3342</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B12" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="497" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3361</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3368</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B13" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="497" t="s">
+        <v>3307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3348</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3352</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B14" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="497" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3308</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3295</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3344</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B15" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="497" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3337</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B16" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="497" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3377</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3299</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B17" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="497" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3286</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3300</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3301</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B18" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="497" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3297</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3322</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3365</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B19" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="497" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3323</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3360</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3364</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3369</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B20" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="497" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3296</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B21" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="497" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3298</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B22" s="497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="497" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3333</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3334</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3335</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3338</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B23" s="497" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C23" s="497" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3401</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B24" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C24" s="497" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3283</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B25" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C25" s="497" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3284</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3287</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3389</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B26" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C26" s="497" t="s">
+        <v>3375</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3375</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3349</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B27" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C27" s="497" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3376</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3313</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3332</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3391</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3392</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B28" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C28" s="497" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3293</v>
+      </c>
+      <c r="M28" t="s">
+        <v>3393</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B29" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C29" s="497" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B30" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C30" s="497" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3358</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3309</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B31" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C31" s="497" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3361</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3305</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3311</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3312</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B32" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C32" s="497" t="s">
+        <v>3368</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3368</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3314</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3324</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3363</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B33" s="497" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C33" s="497" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3374</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3395</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B34" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C34" s="497" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3350</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3351</v>
+      </c>
+      <c r="L34" t="s">
+        <v>3354</v>
+      </c>
+      <c r="M34" t="s">
+        <v>3356</v>
+      </c>
+      <c r="N34" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B35" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C35" s="497" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3352</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3329</v>
+      </c>
+      <c r="L35" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B36" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C36" s="497" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3384</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B37" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C37" s="497" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>3291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>3326</v>
+      </c>
+      <c r="M37" t="s">
+        <v>3373</v>
+      </c>
+      <c r="N37" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B38" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C38" s="497" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J38" t="s">
+        <v>3302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3310</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3340</v>
+      </c>
+      <c r="M38" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B39" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C39" s="497" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3366</v>
+      </c>
+      <c r="M39" t="s">
+        <v>3367</v>
+      </c>
+      <c r="N39" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B40" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C40" s="497" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3379</v>
+      </c>
+      <c r="J40" t="s">
+        <v>3300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B41" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C41" s="497" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B42" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C42" s="497" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B43" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C43" s="497" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B44" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C44" s="497" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="497" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B45" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C45" s="497" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="497" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B46" s="497" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C46" s="497" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B47" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C47" s="497" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B48" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C48" s="497" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B49" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C49" s="497" t="s">
+        <v>3383</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B50" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C50" s="497" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B51" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C51" s="497" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B52" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C52" s="497" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B53" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C53" s="497" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B54" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C54" s="497" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B55" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C55" s="497" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B56" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C56" s="497" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B57" s="497" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C57" s="497" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B58" s="497" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C58" s="497" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B59" s="497" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C59" s="497" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B60" s="497" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C60" s="497" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B61" s="497" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C61" s="497" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B62" s="497" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C62" s="497" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B63" s="497" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C63" s="497" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B64" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C64" s="497" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B65" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C65" s="497" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B66" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C66" s="497" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B67" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C67" s="497" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B68" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C68" s="497" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B69" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C69" s="497" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B70" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C70" s="497" t="s">
+        <v>3391</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B71" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C71" s="497" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B72" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C72" s="497" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B73" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C73" s="497" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B74" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C74" s="497" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B75" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C75" s="497" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B76" s="497" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C76" s="497" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B77" s="497" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C77" s="497" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B78" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="497" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B79" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="497" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B80" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="497" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B81" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="497" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B82" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="497" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B83" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="497" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B84" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="497" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B85" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="497" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B86" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="497" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B87" s="497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="497" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B88" s="497" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C88" s="497" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B89" s="497" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C89" s="497" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B90" s="497" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C90" s="497" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B91" s="497" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C91" s="497" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B92" s="497" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C92" s="497" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B93" s="497" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C93" s="497" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B94" s="497" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C94" s="497" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="497" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B95" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C95" s="497" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B96" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C96" s="497" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B97" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C97" s="497" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B98" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C98" s="497" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="497" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B99" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C99" s="497" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B100" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C100" s="497" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B101" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C101" s="497" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="497" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B102" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C102" s="497" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B103" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C103" s="497" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B104" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C104" s="497" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B105" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C105" s="497" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="497" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B106" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C106" s="497" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="497" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B107" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C107" s="497" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="497" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B108" s="497" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C108" s="497" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C107">
+    <sortCondition ref="A1:A107"/>
+    <sortCondition ref="B1:B107"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:C108">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ROW()&gt;150</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>A2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -66219,7 +69609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
